--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148190.8351311755</v>
+        <v>145669.3305406571</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.361679298168</v>
+        <v>93.58753137643988</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>182.7921074136317</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>110.4637346787652</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.18870769958895</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.1165526564934</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6444247385338</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>143.8843955160139</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,16 +1108,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>122.6087997720043</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.4571321610379</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.517435627157</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>39.61269521953754</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>79.54581243241749</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717026</v>
       </c>
       <c r="I16" t="n">
-        <v>65.5642392189522</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>30.97191586387466</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>274.1357181000192</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>154.0370966050012</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.41770597126747</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>42.53134576113725</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="D37" t="n">
-        <v>147.6895341487369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>302.2589280691165</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="C2" t="n">
-        <v>302.2589280691165</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="D2" t="n">
-        <v>302.2589280691165</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="E2" t="n">
-        <v>302.2589280691165</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,22 +4410,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453.7539249574967</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>453.7539249574967</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.199744578928</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>766.7825745419675</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X4" t="n">
-        <v>538.7930236439502</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>453.7539249574967</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>877.9374416333219</v>
+        <v>681.0854746196787</v>
       </c>
       <c r="C5" t="n">
-        <v>877.9374416333219</v>
+        <v>681.0854746196787</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1994.311187140328</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.542531870213</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X5" t="n">
-        <v>1268.076773609134</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.9374416333219</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.0014915127243</v>
+        <v>491.3876008968055</v>
       </c>
       <c r="C7" t="n">
-        <v>473.0014915127243</v>
+        <v>491.3876008968055</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>491.3876008968055</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>343.4745073144123</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>196.584559816502</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>196.584559816502</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>990.4082124477022</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V7" t="n">
-        <v>990.4082124477022</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W7" t="n">
-        <v>700.9910424107416</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X7" t="n">
-        <v>473.0014915127243</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.0014915127243</v>
+        <v>673.0360657270452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.5736815556431</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.5736815556431</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876673</v>
       </c>
       <c r="C16" t="n">
-        <v>763.7541388327652</v>
+        <v>411.9631215597605</v>
       </c>
       <c r="D16" t="n">
-        <v>763.7541388327652</v>
+        <v>411.9631215597605</v>
       </c>
       <c r="E16" t="n">
-        <v>615.8410452503721</v>
+        <v>264.0500279773673</v>
       </c>
       <c r="F16" t="n">
-        <v>468.9510977524617</v>
+        <v>117.160080479457</v>
       </c>
       <c r="G16" t="n">
-        <v>301.7549984673416</v>
+        <v>117.160080479457</v>
       </c>
       <c r="H16" t="n">
-        <v>160.0431673095397</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,22 +5525,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876675</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876675</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614373</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179072</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5756,43 +5756,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2411.187623003223</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,46 +6464,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7026,13 +7026,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958739</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>633.992644467967</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,13 +7160,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7178,46 +7178,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7406,52 +7406,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>84.94186588374697</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>294.8344935184722</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.94575946518633</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0839383280797</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>125.5054897610419</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890536</v>
       </c>
       <c r="I16" t="n">
-        <v>15.70159709961332</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012561</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>117.6435571543377</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856931</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>63.36835372228705</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>30.95754073885419</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570751</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9259388694754875</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1077398.516134418</v>
+        <v>1077398.516134419</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406861</v>
+        <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
         <v>343037.3048682528</v>
@@ -26326,34 +26326,34 @@
         <v>343037.3048682527</v>
       </c>
       <c r="G2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="H2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="J2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="K2" t="n">
         <v>343037.304868253</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="L2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682528</v>
-      </c>
       <c r="O2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.304868253</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819087</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.25326431799</v>
+        <v>92967.25326431797</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26436,25 +26436,25 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744244</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744264</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744202</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744264</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-983400.9331393965</v>
+        <v>-983587.3265279349</v>
       </c>
       <c r="C6" t="n">
-        <v>120482.8427754925</v>
+        <v>120482.8427754922</v>
       </c>
       <c r="D6" t="n">
-        <v>-39532.61997250617</v>
+        <v>-39532.6199725061</v>
       </c>
       <c r="E6" t="n">
-        <v>-92224.94315475391</v>
+        <v>-92259.68108018966</v>
       </c>
       <c r="F6" t="n">
-        <v>233187.5186526013</v>
+        <v>233152.7807271658</v>
       </c>
       <c r="G6" t="n">
-        <v>233187.5186526013</v>
+        <v>233152.7807271656</v>
       </c>
       <c r="H6" t="n">
-        <v>233187.5186526016</v>
+        <v>233152.7807271656</v>
       </c>
       <c r="I6" t="n">
-        <v>233187.5186526015</v>
+        <v>233152.7807271658</v>
       </c>
       <c r="J6" t="n">
-        <v>65582.34084261893</v>
+        <v>65547.60291718307</v>
       </c>
       <c r="K6" t="n">
-        <v>233187.5186526013</v>
+        <v>233152.7807271659</v>
       </c>
       <c r="L6" t="n">
-        <v>184893.5486444106</v>
+        <v>184858.8107189749</v>
       </c>
       <c r="M6" t="n">
-        <v>148132.4907170897</v>
+        <v>148097.752791654</v>
       </c>
       <c r="N6" t="n">
-        <v>233187.5186526015</v>
+        <v>233152.7807271658</v>
       </c>
       <c r="O6" t="n">
-        <v>233187.5186526012</v>
+        <v>233152.7807271658</v>
       </c>
       <c r="P6" t="n">
-        <v>233187.5186526014</v>
+        <v>233152.7807271659</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.3721623653126</v>
+        <v>234.2005508218544</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.245920710272</v>
       </c>
       <c r="Y4" t="n">
-        <v>134.3959456525058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.5664889641896</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>223.1078337316011</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>3.367113639114962</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>163.6183543491964</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2767095024427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174498</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>127.6341258790903</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0031368437517</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.694959003879886e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.053770158200432e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.250492162490777e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,13 +31844,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>487.5039436775321</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154042</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256856</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>420.36654787987</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35027,7 +35027,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>630.2591755145953</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>356.1622315941988</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
